--- a/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_st02.xlsx
+++ b/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_st02.xlsx
@@ -1848,7 +1848,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="마리아"]  아, 아니야…..
+    <t xml:space="preserve">[name="마리아"]  아, 아니야……
 </t>
   </si>
   <si>
@@ -1984,7 +1984,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="플래티넘"]  네가 걱정할 필욘 없어. 확실한 건, 이 모두가 상업연합회의 명령이라는 거야.
+    <t xml:space="preserve">[name="플래티넘"]  네가 걱정할 필욘 없어. 확실한 건, 이 모든 게 상업연합회의 명령이라는 거야.
 </t>
   </si>
   <si>
@@ -2048,7 +2048,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="조피아"]  잉그라에 포플러까지, 사지 멀쩡하고 중상 안 입은 것만으로도 행운인 줄 알아 이것아……
+    <t xml:space="preserve">[name="조피아"]  잉그라에 토플라까지, 사지 멀쩡하고 중상 안 입은 것만으로도 행운인 줄 알아 이것아……
 </t>
   </si>
   <si>
@@ -2144,7 +2144,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="마리아"]  언니가 가장 싫어했던 게 기사 스포츠였을거라고…… 사실 나도 한동안은 언니나 무에나나 생각이 아주 비슷하다고 봤거든……
+    <t xml:space="preserve">[name="마리아"]  언니가 가장 싫어했던 게 기사 스포츠였을 거라고…… 사실 나도 한동안은 언니나 무에나 삼촌이나 생각이 아주 비슷하다고 생각했었거든……
 </t>
   </si>
   <si>
@@ -2164,7 +2164,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="마리아"]  에헤헷…... 사실은 나도……
+    <t xml:space="preserve">[name="마리아"]  에헤헷…… 사실은 나도……
 </t>
   </si>
   <si>
@@ -2188,7 +2188,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="조피아"]  왜, 왜 그래? 얘는! 왜 사람을 놀라게 하고 그래…...
+    <t xml:space="preserve">[name="조피아"]  왜, 왜 그래? 얘는! 왜 사람을 놀라게 하고 그래……
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_st02.xlsx
+++ b/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_st02.xlsx
@@ -1144,7 +1144,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  Just think of something. Try to make those still sane understand that “victory” and “value” are not equal.
+    <t xml:space="preserve">[name="Spokesman Czarny"]  Just think of something. Try to make those still sane understand that 'victory' and 'value' are not equal.
 </t>
   </si>
   <si>
@@ -1156,7 +1156,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  ...Sir “Left-hand”, do you really not require further medical examination?
+    <t xml:space="preserve">[name="Spokesman Czarny"]  ...Sir 'Left-hand', do you really not require further medical examination?
 </t>
   </si>
   <si>
@@ -1204,7 +1204,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  However, I never expected that Sir Tytus Topola himself would place such a clear price on his own “failure”...
+    <t xml:space="preserve">[name="Spokesman Czarny"]  However, I never expected that Sir Tytus Topola himself would place such a clear price on his own 'failure'...
 </t>
   </si>
   <si>
@@ -1216,7 +1216,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  Let us meet again at the Major, Sir “Left-hand”.
+    <t xml:space="preserve">[name="Spokesman Czarny"]  Let us meet again at the Major, Sir 'Left-hand'.
 </t>
   </si>
   <si>
@@ -1224,7 +1224,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  The Infected fighters’ arena. I’d heard of this competition format... No, this cannot even be considered a “format”.
+    <t xml:space="preserve">[name="Zofia"]  The Infected fighters’ arena. I’d heard of this competition format... No, this cannot even be considered a 'format'.
 </t>
   </si>
   <si>
@@ -1316,7 +1316,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  The Black Knight surely left an impressive mark on the history of knight sports. No one could have ever guessed that a Leithanien completely incapable of using Arts would ever become the “Black Knight” we know today.
+    <t xml:space="preserve">[name="Spokesman Czarny"]  The Black Knight surely left an impressive mark on the history of knight sports. No one could have ever guessed that a Leithanien completely incapable of using Arts would ever become the 'Black Knight' we know today.
 </t>
   </si>
   <si>
@@ -1424,7 +1424,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  I’ve checked all the requests from the other directors. There isn’t a single “major incident” that would require a Lazurite, let alone both of them.
+    <t xml:space="preserve">[name="Spokesman Czarny"]  I’ve checked all the requests from the other directors. There isn’t a single 'major incident' that would require a Lazurite, let alone both of them.
 </t>
   </si>
   <si>
@@ -1444,7 +1444,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Platinum"]  You know very well that asking me stuff about my bosses is a waste of time. Are you trying to give a warning to this “immature Platinum”? Alright, alright, message received. 
+    <t xml:space="preserve">[name="Platinum"]  You know very well that asking me stuff about my bosses is a waste of time. Are you trying to give a warning to this 'immature Platinum'? Alright, alright, message received. 
 </t>
   </si>
   <si>
@@ -1520,7 +1520,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  At the time, my only thoughts were “Just hold on. There must be something I can do”——
+    <t xml:space="preserve">[name="Maria"]  At the time, my only thoughts were 'Just hold on. There must be something I can do'——
 </t>
   </si>
   <si>
@@ -1536,7 +1536,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  *Sigh*... Luckily you were able to take advantage of “Left-hand”’s carelessness. If that sadistic pervert didn’t underestimate you... then you’d be in trouble.
+    <t xml:space="preserve">[name="Zofia"]  *Sigh*... Luckily you were able to take advantage of 'Left-hand'’s carelessness. If that sadistic pervert didn’t underestimate you... then you’d be in trouble.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_st02.xlsx
+++ b/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_st02.xlsx
@@ -1140,7 +1140,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Corporate Employee"]  Mr. Czarny, there’re too many calls coming from the various departments, we can’t handle them all!
+    <t xml:space="preserve">[name="Corporate Employee"]  Mr. Czarny, there're too many calls coming from the various departments, we can't handle them all!
 </t>
   </si>
   <si>
@@ -1160,7 +1160,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Left-hand Knight"]  No. Being able to knock me unconscious right when I was casting my Arts is already the limit of her ability. She’s still far from being able to seriously injure me.
+    <t xml:space="preserve">[name="Left-hand Knight"]  No. Being able to knock me unconscious right when I was casting my Arts is already the limit of her ability. She's still far from being able to seriously injure me.
 </t>
   </si>
   <si>
@@ -1176,7 +1176,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  You’re very confident, good.
+    <t xml:space="preserve">[name="Spokesman Czarny"]  You're very confident, good.
 </t>
   </si>
   <si>
@@ -1196,7 +1196,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  You’re right.
+    <t xml:space="preserve">[name="Spokesman Czarny"]  You're right.
 </t>
   </si>
   <si>
@@ -1220,11 +1220,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  So that’s it... Sonna and them were doing such things...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zofia"]  The Infected fighters’ arena. I’d heard of this competition format... No, this cannot even be considered a 'format'.
+    <t xml:space="preserve">[name="Maria"]  So that's it... Sonna and them were doing such things...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zofia"]  The Infected fighters' arena. I'd heard of this competition format... No, this cannot even be considered a 'format'.
 </t>
   </si>
   <si>
@@ -1236,23 +1236,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Knight"]  They’ll let the Infected join the competitions, but there’s no country that would let an Infected become a pillar of society. That’s why they’re segregated in another competition format.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Knight"]  The Infected can earn money and live on, but they’ll forever be simple gladiators trying to entertain the masses... Tch. There ain’t any meaning to such a sideshow.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Knight"]  Oh, I don’t mean anything by that.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Craftsman"]  You old geezer, can’t you be more tactful with your words?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Knight"]  Who in hell am I supposed to be tactful for, huh? They’re almost onto us!
+    <t xml:space="preserve">[name="Old Knight"]  They'll let the Infected join the competitions, but there's no country that would let an Infected become a pillar of society. That's why they're segregated in another competition format.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Knight"]  The Infected can earn money and live on, but they'll forever be simple gladiators trying to entertain the masses... Tch. There ain't any meaning to such a sideshow.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Knight"]  Oh, I don't mean anything by that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Craftsman"]  You old geezer, can't you be more tactful with your words?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Knight"]  Who in hell am I supposed to be tactful for, huh? They're almost onto us!
 </t>
   </si>
   <si>
@@ -1264,7 +1264,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  They changed their fate as Infected through their own tenacity... But they’ve saved many people.
+    <t xml:space="preserve">[name="Maria"]  They changed their fate as Infected through their own tenacity... But they've saved many people.
 </t>
   </si>
   <si>
@@ -1276,11 +1276,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Craftsman"]  Don’t speak of the Radiant Knight like she’s dead, you idiot!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Knight"]  You’re the one twisting my words, Kowal!
+    <t xml:space="preserve">[name="Old Craftsman"]  Don't speak of the Radiant Knight like she's dead, you idiot!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Knight"]  You're the one twisting my words, Kowal!
 </t>
   </si>
   <si>
@@ -1288,7 +1288,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  Maria? What’s wrong? 
+    <t xml:space="preserve">[name="Zofia"]  Maria? What's wrong? 
 </t>
   </si>
   <si>
@@ -1296,7 +1296,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Platinum"]  The Champion’s Wall... What a lousy place for conversation.
+    <t xml:space="preserve">[name="Platinum"]  The Champion's Wall... What a lousy place for conversation.
 </t>
   </si>
   <si>
@@ -1304,7 +1304,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Platinum"]  Even though she dominated the Major for so many years, she doesn’t seem to have aged a day... Eh, why do I feel like she looks younger than me...?
+    <t xml:space="preserve">[name="Platinum"]  Even though she dominated the Major for so many years, she doesn't seem to have aged a day... Eh, why do I feel like she looks younger than me...?
 </t>
   </si>
   <si>
@@ -1324,7 +1324,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Platinum"]  I wouldn’t expect you to let go of a cash cow like that.
+    <t xml:space="preserve">[name="Platinum"]  I wouldn't expect you to let go of a cash cow like that.
 </t>
   </si>
   <si>
@@ -1332,11 +1332,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  In short, it’s exciting to see new challengers attempting to defeat the Black Knight, but after she managed to hold her own for three entire seasons... It started to get boring.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  The Black Knight’s prospects near the end of her career weren’t very good. The number of people who wanted to get rid of her one way or another could fill an entire arena.
+    <t xml:space="preserve">[name="Spokesman Czarny"]  In short, it's exciting to see new challengers attempting to defeat the Black Knight, but after she managed to hold her own for three entire seasons... It started to get boring.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Spokesman Czarny"]  The Black Knight's prospects near the end of her career weren't very good. The number of people who wanted to get rid of her one way or another could fill an entire arena.
 </t>
   </si>
   <si>
@@ -1352,7 +1352,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Platinum"]  ...And then there’s this, an empty space.
+    <t xml:space="preserve">[name="Platinum"]  ...And then there's this, an empty space.
 </t>
   </si>
   <si>
@@ -1360,7 +1360,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  Yes. I don’t think I need to elaborate.
+    <t xml:space="preserve">[name="Spokesman Czarny"]  Yes. I don't think I need to elaborate.
 </t>
   </si>
   <si>
@@ -1368,7 +1368,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  The Blood Knight’s terror and might are unprecedented in the arena. Thankfully, he’s rather astute and hasn’t caused much trouble for us.
+    <t xml:space="preserve">[name="Spokesman Czarny"]  The Blood Knight's terror and might are unprecedented in the arena. Thankfully, he's rather astute and hasn't caused much trouble for us.
 </t>
   </si>
   <si>
@@ -1380,11 +1380,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Platinum"]  ...Well? I don’t suppose the spokesman of the General Chamber of Commerce invited me here for a history lesson? 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  Sorry to trouble y ou. The Champion’s Wall will be open to the public during the Major, so I have to do a check beforehand.
+    <t xml:space="preserve">[name="Platinum"]  ...Well? I don't suppose the spokesman of the General Chamber of Commerce invited me here for a history lesson? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Spokesman Czarny"]  Sorry to trouble y ou. The Champion's Wall will be open to the public during the Major, so I have to do a check beforehand.
 </t>
   </si>
   <si>
@@ -1392,27 +1392,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Platinum"]  Hm... Alright. It’s about another job, isn’t it? I can’t get away anyway, so I might as well listen.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  It’s not just about a job... I wonder if you know what the two Lazurites are doing today?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Platinum"]  You’re not cleared to know. And neither am I. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  I’ve heard some interesting rumors on the grapevine...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  What sort of major incident could’ve happened, that would need both Lazurites moving out in force?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Platinum"]  ——Ahh la la, I didn’t hear anything. Nothing at all.
+    <t xml:space="preserve">[name="Platinum"]  Hm... Alright. It's about another job, isn't it? I can't get away anyway, so I might as well listen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Spokesman Czarny"]  It's not just about a job... I wonder if you know what the two Lazurites are doing today?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Platinum"]  You're not cleared to know. And neither am I. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Spokesman Czarny"]  I've heard some interesting rumors on the grapevine...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Spokesman Czarny"]  What sort of major incident could've happened, that would need both Lazurites moving out in force?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Platinum"]  ——Ahh la la, I didn't hear anything. Nothing at all.
 </t>
   </si>
   <si>
@@ -1424,11 +1424,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  I’ve checked all the requests from the other directors. There isn’t a single 'major incident' that would require a Lazurite, let alone both of them.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Platinum"]  You don’t have worry about that. Just know it’s an order from the General Chamber of Commerce.
+    <t xml:space="preserve">[name="Spokesman Czarny"]  I've checked all the requests from the other directors. There isn't a single 'major incident' that would require a Lazurite, let alone both of them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Platinum"]  You don't have worry about that. Just know it's an order from the General Chamber of Commerce.
 </t>
   </si>
   <si>
@@ -1436,7 +1436,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Platinum"]  ...You really don’t trust me, huh.
+    <t xml:space="preserve">[name="Platinum"]  ...You really don't trust me, huh.
 </t>
   </si>
   <si>
@@ -1448,7 +1448,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  You’re very smart. However, my suspicions are also very valid. Even if the upper echelons are hiding things from me, I must perform my duties to perfection. 
+    <t xml:space="preserve">[name="Spokesman Czarny"]  You're very smart. However, my suspicions are also very valid. Even if the upper echelons are hiding things from me, I must perform my duties to perfection. 
 </t>
   </si>
   <si>
@@ -1468,7 +1468,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  Even though I think that he’ll remain a useless piece of trash till the end, we must ensure that he does not affect our future plans.
+    <t xml:space="preserve">[name="Spokesman Czarny"]  Even though I think that he'll remain a useless piece of trash till the end, we must ensure that he does not affect our future plans.
 </t>
   </si>
   <si>
@@ -1484,15 +1484,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  It’s my fault for not teaching you this. Being able to properly manage your injuries during a competition is also important. Lift up your hair. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Maria"]  Actually, I didn’t expect that it would——Ah, ouch!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zofia"]  Going up against Ingra and then Topola, you should count your lucky stars that all four limbs are intact and you haven’t suffered any major injuries...
+    <t xml:space="preserve">[name="Zofia"]  It's my fault for not teaching you this. Being able to properly manage your injuries during a competition is also important. Lift up your hair. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Maria"]  Actually, I didn't expect that it would——Ah, ouch!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zofia"]  Going up against Ingra and then Topola, you should count your lucky stars that all four limbs are intact and you haven't suffered any major injuries...
 </t>
   </si>
   <si>
@@ -1500,7 +1500,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  Don’t move for a few days and just stay still. Ending up with a stubborn old wound is one of the worst dangers of being a knight. Don’t be like me.
+    <t xml:space="preserve">[name="Zofia"]  Don't move for a few days and just stay still. Ending up with a stubborn old wound is one of the worst dangers of being a knight. Don't be like me.
 </t>
   </si>
   <si>
@@ -1528,7 +1528,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  Don’t put yourself through hell for such a stupid reason! The accumulated fatigue will just make your next battles harder! 
+    <t xml:space="preserve">[name="Zofia"]  Don't put yourself through hell for such a stupid reason! The accumulated fatigue will just make your next battles harder! 
 </t>
   </si>
   <si>
@@ -1536,7 +1536,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  *Sigh*... Luckily you were able to take advantage of 'Left-hand'’s carelessness. If that sadistic pervert didn’t underestimate you... then you’d be in trouble.
+    <t xml:space="preserve">[name="Zofia"]  *Sigh*... Luckily you were able to take advantage of the carelessness of that 'Left-hand.' If that sadistic pervert didn't underestimate you... then you'd be in trouble.
 </t>
   </si>
   <si>
@@ -1556,11 +1556,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  That’s why he refuses to talk to anyone about his debut battle.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zofia"]  It’s all in the past, though... There is always a winner and loser in knight sports... He doesn’t care about me.
+    <t xml:space="preserve">[name="Zofia"]  That's why he refuses to talk to anyone about his debut battle.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zofia"]  It's all in the past, though... There is always a winner and loser in knight sports... He doesn't care about me.
 </t>
   </si>
   <si>
@@ -1596,7 +1596,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  ...I don’t know what she was thinking either. But she should be more aware than most what the knight sports represent.
+    <t xml:space="preserve">[name="Zofia"]  ...I don't know what she was thinking either. But she should be more aware than most what the knight sports represent.
 </t>
   </si>
   <si>
@@ -1620,11 +1620,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  I don’t know either.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Maria"]  I wonder if she’s living well, at that Rhodes Island place...
+    <t xml:space="preserve">[name="Zofia"]  I don't know either.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Maria"]  I wonder if she's living well, at that Rhodes Island place...
 </t>
   </si>
   <si>
@@ -1632,15 +1632,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  Wh-What? Don’t surprise me like that... 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Maria"]  Th-There’s a notch on my blade...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zofia"]  Ugh... You haven’t been able to properly maintain your weapons, so it’s not surprising that it ended up like this.
+    <t xml:space="preserve">[name="Zofia"]  Wh-What? Don't surprise me like that... 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Maria"]  Th-There's a notch on my blade...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zofia"]  Ugh... You haven't been able to properly maintain your weapons, so it's not surprising that it ended up like this.
 </t>
   </si>
   <si>
@@ -1648,7 +1648,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  *Sigh* Maybe, if I could borrow Master Kowal’s workshop...
+    <t xml:space="preserve">[name="Maria"]  *Sigh* Maybe, if I could borrow Master Kowal's workshop...
 </t>
   </si>
   <si>
@@ -1656,11 +1656,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Craftsman"]  What’s up, V? Focus on driving. Don’t make me get out and call a taxi. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Knight"]  I’m just thinking about those two squirrels... If you get out now I swear I’ll run you over.
+    <t xml:space="preserve">[name="Old Craftsman"]  What's up, V? Focus on driving. Don't make me get out and call a taxi. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Knight"]  I'm just thinking about those two squirrels... If you get out now I swear I'll run you over.
 </t>
   </si>
   <si>
@@ -1680,7 +1680,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Craftsman"]  ...You’re overthinking it. 
+    <t xml:space="preserve">[name="Old Craftsman"]  ...You're overthinking it. 
 </t>
   </si>
   <si>
@@ -1728,7 +1728,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="좌완의 기사"]  이번 경기의 승패는 별로 중요하지 않아. 결과와 상관없이 난 블레이드 헬멧 기사단 전원을 이끌고 토너먼트에 나갈 거다. 그러니, 걱정 안 해도 돼.
+    <t xml:space="preserve">[name="좌완의 기사"]  이번 경기의 승패는 별로 중요하지 않아. 결과와 상관없이 난 블레이드헬멧 기사단 전원을 이끌고 토너먼트에 나갈 거다. 그러니, 걱정 안 해도 돼.
 </t>
   </si>
   <si>
@@ -2100,7 +2100,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="조피아"]  그 자식이 정식으로 블레이드 헬멧 기사단에 들어가고 처음으로 붙었던 상대가 나였거든.
+    <t xml:space="preserve">[name="조피아"]  그 자식이 정식으로 블레이드헬멧 기사단에 들어가고 처음으로 붙었던 상대가 나였거든.
 </t>
   </si>
   <si>
@@ -2124,7 +2124,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="조피아"]  맞아. 그 사람도 껴서 블레이드 헬멧 기사단 멤버 셋이, 난투전에서 마가렛을 포위하려고 했다가 역으로 당해버렸거든. 그 사람들한텐 악몽 같은 일이겠지.
+    <t xml:space="preserve">[name="조피아"]  맞아. 그 사람도 껴서 블레이드헬멧 기사단 멤버 셋이, 난투전에서 마가렛을 포위하려고 했다가 역으로 당해버렸거든. 그 사람들한텐 악몽 같은 일이겠지.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_st02.xlsx
+++ b/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_st02.xlsx
@@ -1872,7 +1872,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="대변인 차르니"]  어둠의 기사는 기사 스포츠사에 한 획을 그었지요. 아츠의 아 자도 전혀 모르던 라이타니아 사람 하나가 오늘날 '어둠의 기사'가 될 줄 누가 알았겠습니까.
+    <t xml:space="preserve">[name="대변인 차르니"]  어둠의 기사는 기사 스포츠사에 한 획을 그었지요. 아츠의 아 자도 전혀 모르던 라이타니엔 사람 하나가 오늘날 '어둠의 기사'가 될 줄 누가 알았겠습니까.
 </t>
   </si>
   <si>
